--- a/src/BulkUserData/BulkUserData.xlsx
+++ b/src/BulkUserData/BulkUserData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\lms-with-moodle\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5B69FC-3E0C-4BA6-A65A-B0E2194FA10B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5B8A61-11BE-4765-A359-A0E205D19353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{EB939389-F117-4B98-8E90-F4B05B58C913}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{EB939389-F117-4B98-8E90-F4B05B58C913}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>نام</t>
   </si>
@@ -61,6 +61,153 @@
   </si>
   <si>
     <t>تستی</t>
+  </si>
+  <si>
+    <t>غرفان</t>
+  </si>
+  <si>
+    <t>دهجوریان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد </t>
+  </si>
+  <si>
+    <t>قنبری</t>
+  </si>
+  <si>
+    <t>علی</t>
+  </si>
+  <si>
+    <t>کبیری</t>
+  </si>
+  <si>
+    <t>حسن</t>
+  </si>
+  <si>
+    <t>نوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسن </t>
+  </si>
+  <si>
+    <t>امیری</t>
+  </si>
+  <si>
+    <t>مجتبی</t>
+  </si>
+  <si>
+    <t>دباغ</t>
+  </si>
+  <si>
+    <t>مانی</t>
+  </si>
+  <si>
+    <t>احمدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسام </t>
+  </si>
+  <si>
+    <t>نوری زاده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محموده </t>
+  </si>
+  <si>
+    <t>بانی</t>
+  </si>
+  <si>
+    <t>ابوالفضل</t>
+  </si>
+  <si>
+    <t>دشتی</t>
+  </si>
+  <si>
+    <t>ایلیا</t>
+  </si>
+  <si>
+    <t>برجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پارسا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">قربانی </t>
+  </si>
+  <si>
+    <t>بهشتی</t>
+  </si>
+  <si>
+    <t>روزبه</t>
+  </si>
+  <si>
+    <t>کریمی</t>
+  </si>
+  <si>
+    <t>احمد رضا</t>
+  </si>
+  <si>
+    <t>گلقندشتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حامد </t>
+  </si>
+  <si>
+    <t>حسنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کامی </t>
+  </si>
+  <si>
+    <t>حسینی</t>
+  </si>
+  <si>
+    <t>محمد رضا</t>
+  </si>
+  <si>
+    <t>عشقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رسول </t>
+  </si>
+  <si>
+    <t>مشتی</t>
+  </si>
+  <si>
+    <t>امیر</t>
+  </si>
+  <si>
+    <t>رشتی</t>
+  </si>
+  <si>
+    <t>اسماعیل</t>
+  </si>
+  <si>
+    <t>اسماعیل پور</t>
+  </si>
+  <si>
+    <t>ولی</t>
+  </si>
+  <si>
+    <t>خان زاده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علی </t>
+  </si>
+  <si>
+    <t>دولت ابادی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رضا محمد </t>
+  </si>
+  <si>
+    <t>محمدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احسان </t>
+  </si>
+  <si>
+    <t>ولی زاده</t>
   </si>
 </sst>
 </file>
@@ -423,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859EE3CE-625A-42C4-815A-81F6F7DAE87B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +632,7 @@
         <v>9154807674</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -511,6 +658,356 @@
       </c>
       <c r="D5">
         <v>9154807676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1051272280</v>
+      </c>
+      <c r="D6">
+        <v>9153529743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1053689823</v>
+      </c>
+      <c r="D7">
+        <v>9153784956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1056784920</v>
+      </c>
+      <c r="D8">
+        <v>9157294786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1055766927</v>
+      </c>
+      <c r="D9">
+        <v>9156879283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1053256377</v>
+      </c>
+      <c r="D10">
+        <v>9153521122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>1051233344</v>
+      </c>
+      <c r="D11">
+        <v>9156789440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1053527935</v>
+      </c>
+      <c r="D12">
+        <v>9156337564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1053527936</v>
+      </c>
+      <c r="D13">
+        <v>9158763312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>1053527937</v>
+      </c>
+      <c r="D14">
+        <v>9158763311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>1053527938</v>
+      </c>
+      <c r="D15">
+        <v>9158763313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>1053527939</v>
+      </c>
+      <c r="D16">
+        <v>9158763314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>1053527940</v>
+      </c>
+      <c r="D17">
+        <v>9158763315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>1053527941</v>
+      </c>
+      <c r="D18">
+        <v>9158763316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>1053527942</v>
+      </c>
+      <c r="D19">
+        <v>9158763317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>1053527943</v>
+      </c>
+      <c r="D20">
+        <v>9155346789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>1053527944</v>
+      </c>
+      <c r="D21">
+        <v>9158763318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>1053527955</v>
+      </c>
+      <c r="D22">
+        <v>9158763319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>1053527966</v>
+      </c>
+      <c r="D23">
+        <v>9158763399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>1053527947</v>
+      </c>
+      <c r="D24">
+        <v>9158763388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>1053527948</v>
+      </c>
+      <c r="D25">
+        <v>9158763377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>1053527949</v>
+      </c>
+      <c r="D26">
+        <v>9158763366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>1053527950</v>
+      </c>
+      <c r="D27">
+        <v>9158763355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>1053527951</v>
+      </c>
+      <c r="D28">
+        <v>9158763344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>1053527952</v>
+      </c>
+      <c r="D29">
+        <v>9158763333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>1053527953</v>
+      </c>
+      <c r="D30">
+        <v>9158763322</v>
       </c>
     </row>
   </sheetData>
